--- a/biology/Zoologie/Diarsia_claudia/Diarsia_claudia.xlsx
+++ b/biology/Zoologie/Diarsia_claudia/Diarsia_claudia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diarsia claudia est une espèce de lépidoptères (papillons) de la famille des Noctuidae.
-L’épithète spécifique claudia est un hommage à Claude Kogan, décédée lors de l’expédition féminine de 1959 au Népal qui a rapporté en France les premiers spécimens de cette espèce du Népal alors inconnue[1].
+L’épithète spécifique claudia est un hommage à Claude Kogan, décédée lors de l’expédition féminine de 1959 au Népal qui a rapporté en France les premiers spécimens de cette espèce du Népal alors inconnue.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Boursin, « Les Noctuidae de l'expédition féminine Claude Kogan au Cho-Oyu (Népal) 1959 (Lep.) 1re contribution à l'étude de la faune des Noctuidae du Népal », Publications de la Société Linnéenne de Lyon, vol. 32, no 1,‎ 1963, p. 20–22 (DOI 10.3406/linly.1963.7107).
 </t>
